--- a/Excel-XLSX/UN-NEP.xlsx
+++ b/Excel-XLSX/UN-NEP.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>fr9oS0</t>
+    <t>d7GD8n</t>
   </si>
   <si>
     <t>1964</t>
@@ -1698,7 +1698,7 @@
     <t>310</t>
   </si>
   <si>
-    <t>416</t>
+    <t>427</t>
   </si>
   <si>
     <t>311</t>
@@ -1716,7 +1716,7 @@
     <t>315</t>
   </si>
   <si>
-    <t>460</t>
+    <t>467</t>
   </si>
   <si>
     <t>316</t>
@@ -22902,7 +22902,7 @@
         <v>33</v>
       </c>
       <c r="O306" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="P306" s="2" t="s">
         <v>33</v>
@@ -23174,7 +23174,7 @@
         <v>76</v>
       </c>
       <c r="O310" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="P310" s="2" t="s">
         <v>33</v>
@@ -23242,7 +23242,7 @@
         <v>560</v>
       </c>
       <c r="O311" s="2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="P311" s="2" t="s">
         <v>33</v>
@@ -23375,10 +23375,10 @@
         <v>31</v>
       </c>
       <c r="N313" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O313" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="P313" s="2" t="s">
         <v>33</v>
@@ -23511,10 +23511,10 @@
         <v>31</v>
       </c>
       <c r="N315" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O315" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P315" s="2" t="s">
         <v>33</v>
@@ -23665,7 +23665,7 @@
         <v>33</v>
       </c>
       <c r="T317" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="U317" s="1" t="s">
         <v>34</v>
@@ -23718,7 +23718,7 @@
         <v>33</v>
       </c>
       <c r="O318" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P318" s="2" t="s">
         <v>33</v>
